--- a/model performancess.xlsx
+++ b/model performancess.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikiv\Desktop\Thesis-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C2F1BA-3C7D-435A-85D1-197208C01110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FBCE77-B5C4-47A4-9E0C-EC9FBDA5F344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first trials for model" sheetId="1" r:id="rId1"/>
     <sheet name="datasets" sheetId="2" r:id="rId2"/>
-    <sheet name="results" sheetId="3" r:id="rId3"/>
-    <sheet name="image processing" sheetId="4" r:id="rId4"/>
+    <sheet name="image processing" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'first trials for model'!$A$1:$F$1</definedName>
@@ -25,58 +24,95 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="7">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="7">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
-  <si>
-    <t>disease</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t xml:space="preserve">source </t>
   </si>
   <si>
-    <t>num/class</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>how much work needed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ovarian tumour </t>
-  </si>
-  <si>
-    <t>https://github.com/cv516Buaa/MMOTU_DS2Net</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1c5n0fVKrM9-SZE1kacTXPt1pt844iAs1</t>
-  </si>
-  <si>
     <t>pcos</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/14592001</t>
-  </si>
-  <si>
-    <t>3k total</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/datasets/amritarajput54/augmented-enhanced-pcos?select=content</t>
-  </si>
-  <si>
-    <t>6k/9k</t>
-  </si>
-  <si>
-    <t>supervised, clean, splitted</t>
-  </si>
-  <si>
-    <t>https://universe.roboflow.com/vanessas/pcos-image-classification</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/datasets/emanali980/pcos-imges/data</t>
   </si>
   <si>
     <t>ovarian cancer</t>
@@ -241,6 +277,57 @@
   <si>
     <t>not correct</t>
   </si>
+  <si>
+    <t>https://universe.roboflow.com/vanessas/pcos-image-classification/browse?queryText=class%3ANormal&amp;pageSize=50&amp;startingIndex=0&amp;browseQuery=true</t>
+  </si>
+  <si>
+    <t>https://universe.roboflow.com/elif-5vzyt/ova_canc</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>disease name</t>
+  </si>
+  <si>
+    <t>pic</t>
+  </si>
+  <si>
+    <t>simple cyst</t>
+  </si>
+  <si>
+    <t>chocolate cyst</t>
+  </si>
+  <si>
+    <t>mucinous cystadenoma</t>
+  </si>
+  <si>
+    <t>teratoma</t>
+  </si>
+  <si>
+    <t>serous cystadenoma</t>
+  </si>
+  <si>
+    <t>theca cell tumour</t>
+  </si>
+  <si>
+    <t>High grade serous cystadenocarcinoma</t>
+  </si>
+  <si>
+    <t>bening</t>
+  </si>
+  <si>
+    <t>bening, can be malignant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mature - bening, immature - malignant </t>
+  </si>
+  <si>
+    <t>malignant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bening </t>
+  </si>
 </sst>
 </file>
 
@@ -271,13 +358,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -303,6 +383,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -385,18 +474,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -413,8 +496,8 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,15 +506,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,18 +528,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2392,6 +2473,100 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2684,88 +2859,88 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.21875" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" style="5" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="42">
-      <c r="A1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>31</v>
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="A2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5">
         <v>0.59250000000000003</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="72">
-      <c r="A3" s="21"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="A3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5">
         <v>0.59</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1">
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2783,118 +2958,137 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="140" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="58.2" customHeight="1">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="48.6" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
+    <row r="4" spans="1:8" ht="46.8" customHeight="1">
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
+    <row r="5" spans="1:8" ht="59.4" customHeight="1">
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+    <row r="6" spans="1:8" ht="59.4" customHeight="1">
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+    <row r="7" spans="1:8">
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1">
-      <c r="B6" t="s">
-        <v>15</v>
+    <row r="8" spans="1:8" ht="72.599999999999994" customHeight="1">
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
+    <row r="9" spans="1:8" ht="64.8" customHeight="1">
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6620E8E0-0124-49EA-9B88-DFC4681243D3}">
   <dimension ref="U20:U22"/>
   <sheetViews>
@@ -2904,17 +3098,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="20" spans="21:21">
-      <c r="U20" s="9" t="s">
-        <v>25</v>
+      <c r="U20" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="21:21">
-      <c r="U22" s="10" t="s">
-        <v>24</v>
+      <c r="U22" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/model performancess.xlsx
+++ b/model performancess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikiv\Desktop\Thesis-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FBCE77-B5C4-47A4-9E0C-EC9FBDA5F344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3AF604-893C-4E93-A295-14CF8C00DD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first trials for model" sheetId="1" r:id="rId1"/>
@@ -278,12 +278,6 @@
     <t>not correct</t>
   </si>
   <si>
-    <t>https://universe.roboflow.com/vanessas/pcos-image-classification/browse?queryText=class%3ANormal&amp;pageSize=50&amp;startingIndex=0&amp;browseQuery=true</t>
-  </si>
-  <si>
-    <t>https://universe.roboflow.com/elif-5vzyt/ova_canc</t>
-  </si>
-  <si>
     <t>dataset</t>
   </si>
   <si>
@@ -327,6 +321,12 @@
   </si>
   <si>
     <t xml:space="preserve">bening </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://universe.roboflow.com/vanessas/pcos-image-classification/browse?queryText=class%3ANormal&amp;pageSize=50&amp;startingIndex=0&amp;browseQuery=true </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://universe.roboflow.com/elif-5vzyt/ova_canc </t>
   </si>
 </sst>
 </file>
@@ -336,7 +336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +392,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -472,11 +480,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -519,6 +528,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,9 +545,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{481FF999-BE42-4641-88B7-5B1969E60D0D}"/>
   </cellStyles>
@@ -554,6 +565,211 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>135255</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>588645</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C9BC14D-DB90-F8C4-7512-0CE2D3FED782}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10984230" y="6568440"/>
+          <a:ext cx="7768590" cy="2592705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>184290</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>18555</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>117615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EE8A1E-E9B4-80C6-2CE6-CB17B49FE1BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11033265" y="4327665"/>
+          <a:ext cx="7770495" cy="2600325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>172365</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>105690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>16155</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>155220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA71B75-59D5-747F-C6CF-164137A0221C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11021340" y="2210715"/>
+          <a:ext cx="7768590" cy="2583180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171870</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>15660</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>149010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6519D7B-15AA-DEA3-A5C2-3290A15AD98D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11020845" y="36615"/>
+          <a:ext cx="7768590" cy="2579370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2859,8 +3075,8 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2898,13 +3114,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -2918,9 +3134,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="72">
-      <c r="A3" s="20"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="16"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
@@ -2950,6 +3166,7 @@
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2960,8 +3177,8 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2974,91 +3191,91 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>24</v>
+      <c r="F1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="58.2" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>20</v>
+      <c r="B2" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48.6" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
+      <c r="B3" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="46.8" customHeight="1">
       <c r="F4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="59.4" customHeight="1">
       <c r="F5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="59.4" customHeight="1">
       <c r="F6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="F7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="72.599999999999994" customHeight="1">
@@ -3069,21 +3286,25 @@
         <v>#VALUE!</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="64.8" customHeight="1">
       <c r="F9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{4028DAD1-2D3C-4D84-B116-279701FD1997}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{4F0BB79C-BA29-4431-99EB-64A90246E347}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3092,8 +3313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6620E8E0-0124-49EA-9B88-DFC4681243D3}">
   <dimension ref="U20:U22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="148" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20:U22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="113" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/model performancess.xlsx
+++ b/model performancess.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikiv\Desktop\Thesis-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3AF604-893C-4E93-A295-14CF8C00DD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B3B451-4CEA-4E8C-9E9B-1364774B853E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first trials for model" sheetId="1" r:id="rId1"/>
     <sheet name="datasets" sheetId="2" r:id="rId2"/>
     <sheet name="image processing" sheetId="4" r:id="rId3"/>
+    <sheet name="resnet" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'first trials for model'!$A$1:$F$1</definedName>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t xml:space="preserve">source </t>
   </si>
@@ -328,6 +329,30 @@
   <si>
     <t xml:space="preserve">https://universe.roboflow.com/elif-5vzyt/ova_canc </t>
   </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>batch size</t>
+  </si>
+  <si>
+    <t>dropout rate</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>trial id</t>
+  </si>
+  <si>
+    <t>wrong class number</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
 </sst>
 </file>
 
@@ -336,7 +361,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,8 +427,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +446,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF46B1E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -485,7 +524,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -545,6 +584,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3313,7 +3357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6620E8E0-0124-49EA-9B88-DFC4681243D3}">
   <dimension ref="U20:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="113" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="AI1" zoomScale="113" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
@@ -3336,4 +3380,210 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1537D8-4206-410A-A1E7-A81510B6E0D4}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="24" customFormat="1">
+      <c r="A3" s="24">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24">
+        <v>60</v>
+      </c>
+      <c r="C3" s="24">
+        <v>64</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="E3" s="24">
+        <v>12</v>
+      </c>
+      <c r="F3" s="24">
+        <v>5.5539999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="24">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24">
+        <v>62.59</v>
+      </c>
+      <c r="C4" s="24">
+        <v>60.65</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="E4" s="24">
+        <v>12.23</v>
+      </c>
+      <c r="F4" s="24">
+        <v>5.5539999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>76.17</v>
+      </c>
+      <c r="C5" s="25">
+        <v>117.4</v>
+      </c>
+      <c r="D5">
+        <v>0.4264</v>
+      </c>
+      <c r="E5" s="25">
+        <v>446.19</v>
+      </c>
+      <c r="F5">
+        <v>2.222E-2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>77.2</v>
+      </c>
+      <c r="C6">
+        <v>26.42</v>
+      </c>
+      <c r="D6">
+        <v>0.35260000000000002</v>
+      </c>
+      <c r="E6">
+        <v>19.53</v>
+      </c>
+      <c r="F6">
+        <v>2.7859999999999999E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>77.2</v>
+      </c>
+      <c r="C7">
+        <v>18.55</v>
+      </c>
+      <c r="D7">
+        <v>0.25440000000000002</v>
+      </c>
+      <c r="E7">
+        <v>18.28</v>
+      </c>
+      <c r="F7">
+        <v>1.469E-3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>78.239999999999995</v>
+      </c>
+      <c r="C8">
+        <v>61.98</v>
+      </c>
+      <c r="D8">
+        <v>0.30580000000000002</v>
+      </c>
+      <c r="E8">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="F8">
+        <v>3.4819999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>70.47</v>
+      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>0.35260000000000002</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>2.768E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/model performancess.xlsx
+++ b/model performancess.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikiv\Desktop\Thesis-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B3B451-4CEA-4E8C-9E9B-1364774B853E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95346A7-3A3F-40E4-802B-64D40F12E300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first trials for model" sheetId="1" r:id="rId1"/>
     <sheet name="datasets" sheetId="2" r:id="rId2"/>
     <sheet name="image processing" sheetId="4" r:id="rId3"/>
     <sheet name="resnet" sheetId="5" r:id="rId4"/>
+    <sheet name="estimated cost of phases" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'first trials for model'!$A$1:$F$1</definedName>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t xml:space="preserve">source </t>
   </si>
@@ -353,6 +354,54 @@
   <si>
     <t>own</t>
   </si>
+  <si>
+    <t>| 1         | 76.17     | 50.15     | 0.2837    | 18.72     | 0.06735   |</t>
+  </si>
+  <si>
+    <t>| 2         | 76.68     | 39.73     | 0.4253    | 19.99     | 0.09648   |</t>
+  </si>
+  <si>
+    <t>| 3         | 76.68     | 55.36     | 0.3665    | 15.86     | 0.04312   |</t>
+  </si>
+  <si>
+    <t>| 4         | 78.24     | 61.98     | 0.3058    | 19.33     | 0.03482   |</t>
+  </si>
+  <si>
+    <t>| 5         | 79.79     | 50.0      | 0.281     | 16.6      | 0.03329   |</t>
+  </si>
+  <si>
+    <t>| 6         | 78.24     | 53.12     | 0.2331    | 13.35     | 0.06646   |</t>
+  </si>
+  <si>
+    <t>| 7         | 76.68     | 46.05     | 0.214     | 12.98     | 0.07355   |</t>
+  </si>
+  <si>
+    <t>| 8         | 78.24     | 49.33     | 0.2207    | 19.92     | 0.092     |</t>
+  </si>
+  <si>
+    <t>| 9         | 78.76     | 55.58     | 0.3361    | 13.63     | 0.01055   |</t>
+  </si>
+  <si>
+    <t>| 10        | 77.2      | 50.07     | 0.4248    | 17.95     | 0.04984   |</t>
+  </si>
+  <si>
+    <t>"""</t>
+  </si>
+  <si>
+    <t>Requirement analysis</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
 </sst>
 </file>
 
@@ -361,7 +410,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +482,43 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFA6E3A1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -524,7 +610,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,6 +655,19 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,11 +683,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -606,6 +703,1269 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Approximated cost of work per waterfall phase</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'estimated cost of phases'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Requirement analysis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'estimated cost of phases'!$B$1</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F367-4346-A324-6A3539CC7E98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'estimated cost of phases'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Design</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'estimated cost of phases'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F367-4346-A324-6A3539CC7E98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'estimated cost of phases'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Implementation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'estimated cost of phases'!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F367-4346-A324-6A3539CC7E98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'estimated cost of phases'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Testing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'estimated cost of phases'!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F367-4346-A324-6A3539CC7E98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'estimated cost of phases'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maintenance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'estimated cost of phases'!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F367-4346-A324-6A3539CC7E98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="349912608"/>
+        <c:axId val="349918368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="349912608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="349918368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="349918368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349912608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2735,6 +4095,97 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>51381</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>64177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>553503</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>75061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4CF360-4A93-3E89-16D3-9DE25BBC0F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762574" y="245938"/>
+          <a:ext cx="2326727" cy="1828499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>275579</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>102171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>398477</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76899</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC0A7D56-B072-9D3D-E5B3-CC88A1794B74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -3158,13 +4609,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -3178,9 +4629,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="72">
-      <c r="A3" s="22"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="18"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
@@ -3384,10 +4835,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1537D8-4206-410A-A1E7-A81510B6E0D4}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="151" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3396,41 +4847,45 @@
     <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="23" t="s">
         <v>37</v>
       </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:7" s="24" customFormat="1">
+    <row r="3" spans="1:8" s="18" customFormat="1">
       <c r="A3" s="24">
         <v>0</v>
       </c>
@@ -3449,8 +4904,10 @@
       <c r="F3" s="24">
         <v>5.5539999999999999E-2</v>
       </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="24">
         <v>1</v>
       </c>
@@ -3469,115 +4926,276 @@
       <c r="F4" s="24">
         <v>5.5539999999999999E-2</v>
       </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+    <row r="5" spans="1:8">
+      <c r="A5" s="22">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="22">
         <v>76.17</v>
       </c>
       <c r="C5" s="25">
         <v>117.4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="22">
         <v>0.4264</v>
       </c>
       <c r="E5" s="25">
         <v>446.19</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="22">
         <v>2.222E-2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="22" t="s">
         <v>43</v>
       </c>
+      <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
+    <row r="6" spans="1:8">
+      <c r="A6" s="22">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="22">
         <v>77.2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="22">
         <v>26.42</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="22">
         <v>0.35260000000000002</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="22">
         <v>19.53</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="22">
         <v>2.7859999999999999E-2</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="22" t="s">
         <v>43</v>
       </c>
+      <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
+    <row r="7" spans="1:8">
+      <c r="A7" s="22">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="22">
         <v>77.2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="22">
         <v>18.55</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="22">
         <v>0.25440000000000002</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="22">
         <v>18.28</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="22">
         <v>1.469E-3</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="22" t="s">
         <v>43</v>
       </c>
+      <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
+    <row r="8" spans="1:8">
+      <c r="A8" s="22">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="22">
         <v>78.239999999999995</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="22">
         <v>61.98</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="22">
         <v>0.30580000000000002</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="22">
         <v>19.329999999999998</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="22">
         <v>3.4819999999999997E-2</v>
       </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="22">
         <v>70.47</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="22">
         <v>32</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="22">
         <v>0.35260000000000002</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="22">
         <v>20</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="22">
         <v>2.768E-2</v>
       </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3586,4 +5204,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16D970A-0B0E-4383-84E6-8DF06344A7B2}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/model performancess.xlsx
+++ b/model performancess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikiv\Desktop\Thesis-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95346A7-3A3F-40E4-802B-64D40F12E300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E781B9-637D-4334-AAEF-4D019A436D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first trials for model" sheetId="1" r:id="rId1"/>
@@ -3347,15 +3347,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>543836</xdr:colOff>
+      <xdr:colOff>545741</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>5135</xdr:rowOff>
+      <xdr:rowOff>7040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>120431</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>115956</xdr:rowOff>
+      <xdr:colOff>122336</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>68525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3370,8 +3370,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8546741" y="3264590"/>
-          <a:ext cx="3577095" cy="1137616"/>
+          <a:off x="7864230" y="3392184"/>
+          <a:ext cx="3235840" cy="1308643"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4808,7 +4808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6620E8E0-0124-49EA-9B88-DFC4681243D3}">
   <dimension ref="U20:U22"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" zoomScale="113" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
@@ -5210,7 +5210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16D970A-0B0E-4383-84E6-8DF06344A7B2}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+    <sheetView zoomScale="109" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/model performancess.xlsx
+++ b/model performancess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikiv\Desktop\Thesis-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E781B9-637D-4334-AAEF-4D019A436D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4377C6-1E7D-4AD8-8229-8224ADFB5378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first trials for model" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t xml:space="preserve">source </t>
   </si>
@@ -268,18 +268,6 @@
     <t>none</t>
   </si>
   <si>
-    <t xml:space="preserve">data augmentation gave better results? (%) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ray tune (hyperband) </t>
-  </si>
-  <si>
-    <t>AutoML</t>
-  </si>
-  <si>
-    <t>not correct</t>
-  </si>
-  <si>
     <t>dataset</t>
   </si>
   <si>
@@ -401,6 +389,9 @@
   </si>
   <si>
     <t>Maintenance</t>
+  </si>
+  <si>
+    <t>DenseNet</t>
   </si>
 </sst>
 </file>
@@ -541,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -593,24 +584,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -647,9 +627,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -668,23 +645,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1972,23 +1949,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>135255</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>54899</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>16279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>588645</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
+      <xdr:colOff>363509</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>54899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C9BC14D-DB90-F8C4-7512-0CE2D3FED782}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6BCB402-1E7F-3E04-FB63-926656DEA6DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +1973,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -2004,14 +1981,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="9716" t="18315" r="8619" b="26529"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10984230" y="6568440"/>
-          <a:ext cx="7768590" cy="2592705"/>
+          <a:off x="12731808" y="16279"/>
+          <a:ext cx="6358544" cy="1424075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2022,23 +1998,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>184290</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50940</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>125467</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>18555</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>117615</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>20954</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>132831</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EE8A1E-E9B4-80C6-2CE6-CB17B49FE1BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264BFEB7-D1A4-51DE-5EE6-9DF2EC0FC01A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,122 +2022,21 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="20110" t="6701" r="18212" b="8828"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11033265" y="4327665"/>
-          <a:ext cx="7770495" cy="2600325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>172365</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>105690</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>16155</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>155220</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA71B75-59D5-747F-C6CF-164137A0221C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11021340" y="2210715"/>
-          <a:ext cx="7768590" cy="2583180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171870</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>36615</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>15660</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>149010</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6519D7B-15AA-DEA3-A5C2-3290A15AD98D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11020845" y="36615"/>
-          <a:ext cx="7768590" cy="2579370"/>
+          <a:off x="13408512" y="1417147"/>
+          <a:ext cx="1706276" cy="1745327"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4568,10 +4443,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4582,10 +4457,9 @@
     <col min="4" max="4" width="25.88671875" style="10" customWidth="1"/>
     <col min="5" max="5" width="26.21875" style="5" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42">
+    <row r="1" spans="1:8" ht="42">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -4604,11 +4478,8 @@
       <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
@@ -4622,44 +4493,40 @@
         <v>15</v>
       </c>
       <c r="E2" s="5">
-        <v>0.59250000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="72">
-      <c r="A3" s="31"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="27"/>
+    <row r="3" spans="1:8">
+      <c r="A3" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5">
-        <v>0.59</v>
+        <v>0.77</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1">
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1">
       <c r="D4" s="11"/>
       <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="C5" t="s">
-        <v>18</v>
+      <c r="H4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4686,91 +4553,91 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>22</v>
+      <c r="F1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="58.2" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>35</v>
+      <c r="B2" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48.6" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>36</v>
+      <c r="B3" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G3" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="46.8" customHeight="1">
       <c r="F4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G4" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="59.4" customHeight="1">
       <c r="F5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G5" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="59.4" customHeight="1">
       <c r="F6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G6" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="F7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="72.599999999999994" customHeight="1">
@@ -4781,18 +4648,18 @@
         <v>#VALUE!</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="64.8" customHeight="1">
       <c r="F9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G9" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4808,7 +4675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6620E8E0-0124-49EA-9B88-DFC4681243D3}">
   <dimension ref="U20:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
@@ -4838,7 +4705,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="151" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4852,350 +4719,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="23" t="s">
+      <c r="B2" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1">
-      <c r="A3" s="24">
+    <row r="3" spans="1:8" s="17" customFormat="1">
+      <c r="A3" s="23">
         <v>0</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>60</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>64</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="23">
         <v>0.32819999999999999</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <v>12</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <v>5.5539999999999999E-2</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="24">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>62.59</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>60.65</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>0.32819999999999999</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>12.23</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>5.5539999999999999E-2</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>76.17</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>117.4</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>0.4264</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>446.19</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>2.222E-2</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="22"/>
+      <c r="G5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>77.2</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>26.42</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>0.35260000000000002</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>19.53</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>2.7859999999999999E-2</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="22"/>
+      <c r="G6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>4</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>77.2</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>18.55</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>0.25440000000000002</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>18.28</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>1.469E-3</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="22"/>
+      <c r="G7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>5</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>78.239999999999995</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>61.98</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>0.30580000000000002</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>19.329999999999998</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>3.4819999999999997E-2</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="22">
+      <c r="A9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="21">
         <v>70.47</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>32</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>0.35260000000000002</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>20</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>2.768E-2</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="22"/>
+      <c r="A11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="22"/>
+      <c r="A12" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="22"/>
+      <c r="A13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="22"/>
+      <c r="A14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="22"/>
+      <c r="A15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="22"/>
+      <c r="A16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="22"/>
+      <c r="A17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="22"/>
+      <c r="A18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="22"/>
+      <c r="A19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="22"/>
+      <c r="A20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="A21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5221,41 +5088,41 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="21">
+        <v>52</v>
+      </c>
+      <c r="B1" s="20">
         <v>0.25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="21">
+        <v>53</v>
+      </c>
+      <c r="B2" s="20">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="21">
+        <v>54</v>
+      </c>
+      <c r="B3" s="20">
         <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="21">
+        <v>55</v>
+      </c>
+      <c r="B4" s="20">
         <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="21">
+        <v>56</v>
+      </c>
+      <c r="B5" s="20">
         <v>0.1</v>
       </c>
     </row>

--- a/model performancess.xlsx
+++ b/model performancess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikiv\Desktop\Thesis-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4377C6-1E7D-4AD8-8229-8224ADFB5378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0214083-ABF3-4063-87FA-0CB98CDC9D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first trials for model" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t xml:space="preserve">source </t>
   </si>
@@ -393,13 +393,17 @@
   <si>
     <t>DenseNet</t>
   </si>
+  <si>
+    <t>mobilenet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00%"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -590,7 +594,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -605,9 +609,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
@@ -645,9 +646,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -662,6 +660,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4443,18 +4450,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.21875" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" style="9" customWidth="1"/>
     <col min="5" max="5" width="26.21875" style="5" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4466,10 +4473,10 @@
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -4480,19 +4487,19 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="31">
         <v>0.75</v>
       </c>
       <c r="F2" t="s">
@@ -4500,19 +4507,19 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="31">
         <v>0.77</v>
       </c>
       <c r="F3" t="s">
@@ -4520,11 +4527,22 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1">
-      <c r="D4" s="11"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="32">
+        <v>0.7157</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="E5" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4558,18 +4576,18 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="58.2" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F2" t="s">
@@ -4586,7 +4604,7 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F3" t="s">
@@ -4681,16 +4699,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="20" spans="21:21">
-      <c r="U20" s="7" t="s">
+      <c r="U20" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="21:21">
-      <c r="U22" s="8" t="s">
+      <c r="U22" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4719,350 +4737,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" s="17" customFormat="1">
-      <c r="A3" s="23">
+    <row r="3" spans="1:8" s="16" customFormat="1">
+      <c r="A3" s="22">
         <v>0</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="22">
         <v>60</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>64</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>0.32819999999999999</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <v>12</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <v>5.5539999999999999E-2</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="23">
+      <c r="A4" s="22">
         <v>1</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>62.59</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>60.65</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>0.32819999999999999</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>12.23</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>5.5539999999999999E-2</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>76.17</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>117.4</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>0.4264</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>446.19</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>2.222E-2</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>77.2</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>26.42</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>0.35260000000000002</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>19.53</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>2.7859999999999999E-2</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>4</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>77.2</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>18.55</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>0.25440000000000002</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>18.28</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>1.469E-3</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>5</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>78.239999999999995</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>61.98</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>0.30580000000000002</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>19.329999999999998</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>3.4819999999999997E-2</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>70.47</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>32</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>0.35260000000000002</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>20</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>2.768E-2</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="21"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="21"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="21"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="21"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="21"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="21"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="21"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="21"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="21"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5090,7 +5108,7 @@
       <c r="A1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="20">
+      <c r="B1" s="19">
         <v>0.25</v>
       </c>
     </row>
@@ -5098,7 +5116,7 @@
       <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="19">
         <v>0.2</v>
       </c>
     </row>
@@ -5106,7 +5124,7 @@
       <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>0.3</v>
       </c>
     </row>
@@ -5114,7 +5132,7 @@
       <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>0.15</v>
       </c>
     </row>
@@ -5122,7 +5140,7 @@
       <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>0.1</v>
       </c>
     </row>

--- a/model performancess.xlsx
+++ b/model performancess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikiv\Desktop\Thesis-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0214083-ABF3-4063-87FA-0CB98CDC9D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76543FB-7AB2-46D7-8E2B-8DD578821343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'first trials for model'!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -109,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t xml:space="preserve">source </t>
   </si>
@@ -395,6 +408,15 @@
   </si>
   <si>
     <t>mobilenet</t>
+  </si>
+  <si>
+    <t>googlenet</t>
+  </si>
+  <si>
+    <t>time (s)</t>
+  </si>
+  <si>
+    <t>time (m)</t>
   </si>
 </sst>
 </file>
@@ -536,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -588,13 +610,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -670,6 +703,10 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4450,23 +4487,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42">
+    <row r="1" spans="1:9" ht="42">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -4485,8 +4523,14 @@
       <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="G1" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1">
       <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
@@ -4505,8 +4549,15 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
+      <c r="G2">
+        <v>331.44</v>
+      </c>
+      <c r="H2" s="34">
+        <f>G2/60</f>
+        <v>5.524</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="29" t="s">
         <v>57</v>
       </c>
@@ -4520,29 +4571,75 @@
         <v>15</v>
       </c>
       <c r="E3" s="31">
-        <v>0.77</v>
+        <v>0.77449999999999997</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
+      <c r="G3">
+        <v>583.88</v>
+      </c>
+      <c r="H3" s="34">
+        <f t="shared" ref="H3:H5" si="0">G3/60</f>
+        <v>9.7313333333333336</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="B4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="32">
-        <v>0.7157</v>
+        <v>0.80389999999999995</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4">
+        <v>172.57</v>
+      </c>
+      <c r="H4" s="34">
+        <f t="shared" si="0"/>
+        <v>2.8761666666666668</v>
+      </c>
+      <c r="I4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="E5" s="31"/>
+    <row r="5" spans="1:9">
+      <c r="A5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0.72550000000000003</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>210.58</v>
+      </c>
+      <c r="H5" s="34">
+        <f t="shared" si="0"/>
+        <v>3.5096666666666669</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model performancess.xlsx
+++ b/model performancess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikiv\Desktop\Thesis-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76543FB-7AB2-46D7-8E2B-8DD578821343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E304CFF3-6B0A-4D4C-8301-398AF8F0C0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first trials for model" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t xml:space="preserve">source </t>
   </si>
@@ -418,6 +418,9 @@
   <si>
     <t>time (m)</t>
   </si>
+  <si>
+    <t>inception v3</t>
+  </si>
 </sst>
 </file>
 
@@ -425,9 +428,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00%"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,6 +541,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -627,7 +636,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,19 +703,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -729,7 +747,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1993,13 +2011,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>54899</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>16279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>363509</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>54899</xdr:rowOff>
@@ -2042,13 +2060,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>125467</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>31692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>20954</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>132831</xdr:rowOff>
@@ -4487,24 +4505,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="42">
+    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -4523,14 +4541,15 @@
       <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>61</v>
       </c>
+      <c r="I1" s="37"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
@@ -4543,7 +4562,7 @@
       <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <v>0.75</v>
       </c>
       <c r="F2" t="s">
@@ -4552,12 +4571,13 @@
       <c r="G2">
         <v>331.44</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="33">
         <f>G2/60</f>
         <v>5.524</v>
       </c>
+      <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>57</v>
       </c>
@@ -4570,7 +4590,7 @@
       <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>0.77449999999999997</v>
       </c>
       <c r="F3" t="s">
@@ -4579,12 +4599,13 @@
       <c r="G3">
         <v>583.88</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="33">
         <f t="shared" ref="H3:H5" si="0">G3/60</f>
         <v>9.7313333333333336</v>
       </c>
+      <c r="I3" s="33"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -4597,7 +4618,7 @@
       <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <v>0.80389999999999995</v>
       </c>
       <c r="F4" t="s">
@@ -4606,15 +4627,16 @@
       <c r="G4">
         <v>172.57</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="33">
         <f t="shared" si="0"/>
         <v>2.8761666666666668</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="33"/>
+      <c r="J4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -4627,7 +4649,7 @@
       <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <v>0.72550000000000003</v>
       </c>
       <c r="F5" t="s">
@@ -4636,14 +4658,30 @@
       <c r="G5">
         <v>210.58</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="33">
         <f t="shared" si="0"/>
         <v>3.5096666666666669</v>
+      </c>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4658,15 +4696,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="140" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4680,7 +4718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="58.2" customHeight="1">
+    <row r="2" spans="1:8" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -4697,7 +4735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="48.6" customHeight="1">
+    <row r="3" spans="1:8" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4714,7 +4752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="46.8" customHeight="1">
+    <row r="4" spans="1:8" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F4" t="s">
         <v>21</v>
       </c>
@@ -4725,7 +4763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="59.4" customHeight="1">
+    <row r="5" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F5" t="s">
         <v>22</v>
       </c>
@@ -4736,7 +4774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="59.4" customHeight="1">
+    <row r="6" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F6" t="s">
         <v>23</v>
       </c>
@@ -4747,7 +4785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
         <v>24</v>
       </c>
@@ -4755,7 +4793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="72.599999999999994" customHeight="1">
+    <row r="8" spans="1:8" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
         <v>1</v>
       </c>
@@ -4766,7 +4804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="64.8" customHeight="1">
+    <row r="9" spans="1:8" ht="64.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
         <v>25</v>
       </c>
@@ -4794,17 +4832,17 @@
       <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="16384" width="8.90625" style="6"/>
   </cols>
   <sheetData>
-    <row r="20" spans="21:21">
+    <row r="20" spans="21:21" x14ac:dyDescent="0.35">
       <c r="U20" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="21:21">
+    <row r="22" spans="21:21" x14ac:dyDescent="0.35">
       <c r="U22" s="7" t="s">
         <v>9</v>
       </c>
@@ -4823,29 +4861,29 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>38</v>
       </c>
@@ -4867,7 +4905,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" s="16" customFormat="1">
+    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>0</v>
       </c>
@@ -4889,7 +4927,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>1</v>
       </c>
@@ -4911,7 +4949,7 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>2</v>
       </c>
@@ -4935,7 +4973,7 @@
       </c>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>3</v>
       </c>
@@ -4959,7 +4997,7 @@
       </c>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>4</v>
       </c>
@@ -4983,7 +5021,7 @@
       </c>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="20">
         <v>5</v>
       </c>
@@ -5005,7 +5043,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>40</v>
       </c>
@@ -5027,7 +5065,7 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -5037,7 +5075,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>41</v>
       </c>
@@ -5049,7 +5087,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>42</v>
       </c>
@@ -5061,7 +5099,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>43</v>
       </c>
@@ -5073,7 +5111,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>44</v>
       </c>
@@ -5085,7 +5123,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>45</v>
       </c>
@@ -5097,7 +5135,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>46</v>
       </c>
@@ -5109,7 +5147,7 @@
       <c r="G16" s="24"/>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>47</v>
       </c>
@@ -5121,7 +5159,7 @@
       <c r="G17" s="24"/>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>48</v>
       </c>
@@ -5133,7 +5171,7 @@
       <c r="G18" s="24"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>49</v>
       </c>
@@ -5145,7 +5183,7 @@
       <c r="G19" s="24"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>50</v>
       </c>
@@ -5157,7 +5195,7 @@
       <c r="G20" s="24"/>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>51</v>
       </c>
@@ -5169,7 +5207,7 @@
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -5196,12 +5234,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -5209,7 +5247,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -5217,7 +5255,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -5225,7 +5263,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -5233,7 +5271,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>56</v>
       </c>

--- a/model performancess.xlsx
+++ b/model performancess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikiv\Desktop\Thesis-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E304CFF3-6B0A-4D4C-8301-398AF8F0C0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB58D7D-14E2-4DC6-8EA2-3B425F34F2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first trials for model" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t xml:space="preserve">source </t>
   </si>
@@ -420,6 +420,18 @@
   </si>
   <si>
     <t>inception v3</t>
+  </si>
+  <si>
+    <t>5m 31s</t>
+  </si>
+  <si>
+    <t>9m 43s</t>
+  </si>
+  <si>
+    <t>2m 52s</t>
+  </si>
+  <si>
+    <t>3m 31s</t>
   </si>
 </sst>
 </file>
@@ -548,7 +560,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +575,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,7 +660,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -700,9 +724,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -713,16 +734,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4507,8 +4553,8 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4541,13 +4587,13 @@
       <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="37"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -4562,7 +4608,7 @@
       <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="29">
         <v>0.75</v>
       </c>
       <c r="F2" t="s">
@@ -4571,39 +4617,37 @@
       <c r="G2">
         <v>331.44</v>
       </c>
-      <c r="H2" s="33">
-        <f>G2/60</f>
-        <v>5.524</v>
-      </c>
-      <c r="I2" s="33"/>
+      <c r="H2" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="44">
         <v>0.77449999999999997</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="45">
         <v>583.88</v>
       </c>
-      <c r="H3" s="33">
-        <f t="shared" ref="H3:H5" si="0">G3/60</f>
-        <v>9.7313333333333336</v>
-      </c>
-      <c r="I3" s="33"/>
+      <c r="H3" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
@@ -4618,7 +4662,7 @@
       <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <v>0.80389999999999995</v>
       </c>
       <c r="F4" t="s">
@@ -4627,11 +4671,10 @@
       <c r="G4">
         <v>172.57</v>
       </c>
-      <c r="H4" s="33">
-        <f t="shared" si="0"/>
-        <v>2.8761666666666668</v>
-      </c>
-      <c r="I4" s="33"/>
+      <c r="H4" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="32"/>
       <c r="J4" t="s">
         <v>7</v>
       </c>
@@ -4649,7 +4692,7 @@
       <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <v>0.72550000000000003</v>
       </c>
       <c r="F5" t="s">
@@ -4658,14 +4701,13 @@
       <c r="G5">
         <v>210.58</v>
       </c>
-      <c r="H5" s="33">
-        <f t="shared" si="0"/>
-        <v>3.5096666666666669</v>
-      </c>
-      <c r="I5" s="33"/>
+      <c r="H5" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="32"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
         <v>62</v>
       </c>
       <c r="B6" s="35" t="s">
@@ -4674,9 +4716,10 @@
       <c r="C6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="37" t="s">
         <v>15</v>
       </c>
+      <c r="E6" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4858,7 +4901,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="151" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4872,14 +4915,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
     </row>
